--- a/notebooks/results/ANNSigSig_ST001047.xlsx
+++ b/notebooks/results/ANNSigSig_ST001047.xlsx
@@ -437,19 +437,19 @@
         <v>12.8042008738419</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06842607068475764</v>
+        <v>-1.507917523384094</v>
       </c>
       <c r="H2" t="n">
-        <v>1.934882030768542</v>
+        <v>0.0914536714553833</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.09221751 -0.04475556 -0.07336304]</t>
+          <t>[-2.03631768 -0.97402236 -1.46163459]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1.16501077 2.57366374 1.98819554]</t>
+          <t>[0.06930261 0.13786789 0.09913512]</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
         <v>9.372663557352331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.004672346392015133</v>
+        <v>-0.3528540134429932</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4245393101123416</v>
+        <v>0.04013816267251968</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.03002921  0.02104725 -0.00245283]</t>
+          <t>[-0.74161049  0.15212439 -0.34732722]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.1104905  0.59712865 0.36721208]</t>
+          <t>[0.02911772 0.05563394 0.04116456]</t>
         </is>
       </c>
     </row>
@@ -517,19 +517,19 @@
         <v>5.04915562556207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04544949438479028</v>
+        <v>0.1230872869491577</v>
       </c>
       <c r="H4" t="n">
-        <v>1.357921935310967</v>
+        <v>0.01657054200768471</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.0257762  0.06849543 0.05605336]</t>
+          <t>[-0.30375747  0.94826408  0.18308729]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.81487482 2.25697364 1.63407069]</t>
+          <t>[0.00572141 0.0327459  0.01472448]</t>
         </is>
       </c>
     </row>
@@ -557,19 +557,19 @@
         <v>5.13234006385694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05336036051358085</v>
+        <v>-0.7942982316017151</v>
       </c>
       <c r="H5" t="n">
-        <v>1.531687005513794</v>
+        <v>0.06251833587884903</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.07239693 -0.03999039 -0.06078896]</t>
+          <t>[-1.1664768  -0.39173984 -0.76507338]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1.18013919 1.89496088 1.64289929]</t>
+          <t>[0.04268165 0.0924739  0.06374855]</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
         <v>15.4761649136304</v>
       </c>
       <c r="G6" t="n">
-        <v>1.896490594235131e-05</v>
+        <v>0.05779220163822174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1477537518097171</v>
+        <v>0.021553760394454</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.03482268  0.03701066 -0.00377378]</t>
+          <t>[-0.38415723  0.66250786  0.19072819]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.0494311  0.16501221 0.04984405]</t>
+          <t>[0.01663542 0.02815121 0.01915316]</t>
         </is>
       </c>
     </row>
@@ -637,19 +637,19 @@
         <v>8.905710853410421</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03695016751205463</v>
+        <v>-0.837755560874939</v>
       </c>
       <c r="H7" t="n">
-        <v>1.058860228878581</v>
+        <v>0.03615047037601471</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.0750215  -0.01454513 -0.04190992]</t>
+          <t>[-1.39004326 -0.32169149 -0.79623979]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.47214234 1.97223745 1.19998158]</t>
+          <t>[0.01435538 0.0583302  0.03409428]</t>
         </is>
       </c>
     </row>
@@ -677,19 +677,19 @@
         <v>4.20083681066561</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02026799545925846</v>
+        <v>0.432949423789978</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6535866303005805</v>
+        <v>0.02887807786464691</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.040775   -0.00388215 -0.02339326]</t>
+          <t>[0.03073082 0.73873356 0.36266015]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.30960221 1.08045675 0.67021857]</t>
+          <t>[0.00841882 0.04306406 0.02418517]</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>18.1490341883149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01526336323117483</v>
+        <v>0.2199253141880035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6104346475921597</v>
+        <v>0.01757098361849785</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.0076017   0.03958159  0.0177854 ]</t>
+          <t>[-0.17963259  0.64257402  0.24483507]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.28924728 1.25553533 0.61748809]</t>
+          <t>[0.00783646 0.04036336 0.02060792]</t>
         </is>
       </c>
     </row>
@@ -757,19 +757,19 @@
         <v>16.4201497510561</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007819165631008132</v>
+        <v>-0.2407980710268021</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5060858780194127</v>
+        <v>0.05435970425605774</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.0113992   0.02923483  0.00986942]</t>
+          <t>[-0.60290612  0.24315226 -0.24271404]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.20969558 0.8707261  0.48063534]</t>
+          <t>[0.04563625 0.06264682 0.0571695 ]</t>
         </is>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>10.475665966914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005433943359244152</v>
+        <v>-0.5721472501754761</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3316279065220029</v>
+        <v>0.03672104328870773</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.02435493  0.02142774 -0.00219832]</t>
+          <t>[-1.02614706 -0.10823435 -0.53588315]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.15050188 0.49993182 0.22295282]</t>
+          <t>[0.01860339 0.05870774 0.03740655]</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
         <v>4.16327952324079</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03028743642698663</v>
+        <v>-0.1191814914345741</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9287461677619477</v>
+        <v>0.03454878181219101</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.00907548 0.05862762 0.0309523 ]</t>
+          <t>[-0.56727311  0.54158624 -0.07664112]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.42474214 1.53818818 0.93379878]</t>
+          <t>[0.02169547 0.04691038 0.02988267]</t>
         </is>
       </c>
     </row>
@@ -877,19 +877,19 @@
         <v>9.49971351958197</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0009809223426041746</v>
+        <v>0.8198615312576294</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4130692250072716</v>
+        <v>0.05588386207818985</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.01732647  0.01674103 -0.0006728 ]</t>
+          <t>[0.45846936 1.18553427 0.79875136]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.20897495 0.54552078 0.31740249]</t>
+          <t>[0.03730313 0.07135646 0.05598523]</t>
         </is>
       </c>
     </row>
@@ -917,19 +917,19 @@
         <v>7.35629680015826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001232286104454985</v>
+        <v>0.2166008949279785</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2708638805202409</v>
+        <v>0.0162377841770649</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.02161156  0.02757666  0.00161302]</t>
+          <t>[-0.15806771  0.73396887  0.21958806]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.09497385 0.3519473  0.14693107]</t>
+          <t>[0.00707542 0.03283306 0.01688953]</t>
         </is>
       </c>
     </row>
@@ -957,19 +957,19 @@
         <v>10.5270026105767</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01092551847234981</v>
+        <v>0.292680412530899</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4479967993143504</v>
+        <v>0.05541159957647324</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.03052016  0.01157735 -0.01200139]</t>
+          <t>[-0.12491049  0.70722309  0.28249425]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.07712412 0.72435738 0.40776854]</t>
+          <t>[0.04564395 0.06503264 0.05736678]</t>
         </is>
       </c>
     </row>
@@ -997,19 +997,19 @@
         <v>6.2683318247799</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06800439577645248</v>
+        <v>-1.134403705596924</v>
       </c>
       <c r="H16" t="n">
-        <v>1.921727867377717</v>
+        <v>0.08689417690038681</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-0.0985701  -0.05084231 -0.07690458]</t>
+          <t>[-1.7695685  -0.62591238 -1.17113074]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.49254469 2.77441011 2.21146383]</t>
+          <t>[0.06274887 0.10992711 0.09114412]</t>
         </is>
       </c>
     </row>
@@ -1037,19 +1037,19 @@
         <v>3.23499494857128</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03891128490016038</v>
+        <v>-0.4814014434814453</v>
       </c>
       <c r="H17" t="n">
-        <v>1.147746004640422</v>
+        <v>0.03845154121518135</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.05599761 -0.03000081 -0.0422111 ]</t>
+          <t>[-0.7933646  -0.22490009 -0.48921334]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.94171408 1.5240726  1.3083748 ]</t>
+          <t>[0.02599305 0.04969441 0.04339856]</t>
         </is>
       </c>
     </row>
@@ -1077,19 +1077,19 @@
         <v>18.8260788445098</v>
       </c>
       <c r="G18" t="n">
-        <v>5.028747118369578e-06</v>
+        <v>-0.3839644193649292</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2279244888188438</v>
+        <v>0.03478540852665901</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.03950298  0.01720737 -0.0112931 ]</t>
+          <t>[-0.95267708  0.04495485 -0.39217539]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.15146596 0.31484622 0.15325784]</t>
+          <t>[0.01844887 0.05639415 0.03631914]</t>
         </is>
       </c>
     </row>
@@ -1117,19 +1117,19 @@
         <v>14.3585518548811</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02027463677926823</v>
+        <v>0.2022218704223633</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6061661707620559</v>
+        <v>0.01360044907778502</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.03853427  0.00906903 -0.01999994]</t>
+          <t>[-0.38931786  0.60399456  0.18076889]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.22718917 1.13453725 0.56740754]</t>
+          <t>[0.00243807 0.02936562 0.01270879]</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         <v>10.6115825535449</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002246726547843648</v>
+        <v>-0.2519625425338745</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4633227872108271</v>
+        <v>0.01332825608551502</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.01828435  0.01280071 -0.00261682]</t>
+          <t>[-0.54955402  0.07965833 -0.2373306 ]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.27425803 0.57572393 0.39185487]</t>
+          <t>[0.00283091 0.0318354  0.01343442]</t>
         </is>
       </c>
     </row>
@@ -1197,19 +1197,19 @@
         <v>2.43157137126769</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001460712866836552</v>
+        <v>-0.3436585664749146</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3413719355531064</v>
+        <v>0.01581271924078465</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.02932053  0.02427185  0.0030049 ]</t>
+          <t>[-0.96717505  0.16162881 -0.3605847 ]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.21447639 0.62170471 0.27782671]</t>
+          <t>[0.00375303 0.03777328 0.01581791]</t>
         </is>
       </c>
     </row>
@@ -1237,19 +1237,19 @@
         <v>16.1921649824113</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007024435426942541</v>
+        <v>-0.3410941958427429</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3532979634536919</v>
+        <v>0.0347265899181366</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.03944714  0.01665588 -0.00703274]</t>
+          <t>[-0.82968025  0.03688627 -0.39424172]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.1172775  0.58646049 0.26608321]</t>
+          <t>[0.02511869 0.0524794  0.03951458]</t>
         </is>
       </c>
     </row>
@@ -1277,19 +1277,19 @@
         <v>8.71508486022139</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02573125910871042</v>
+        <v>0.5184680819511414</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8064690964352549</v>
+        <v>0.03566711395978928</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.05218639 -0.01406676 -0.02889882]</t>
+          <t>[0.29129833 0.84734878 0.57074217]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.53622872 1.39973386 0.85990655]</t>
+          <t>[0.01077887 0.05287487 0.03526453]</t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
         <v>6.07329505645181</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01609705531494578</v>
+        <v>0.3833931684494019</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6635415698031905</v>
+        <v>0.02284744568169117</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.00081715 0.03595539 0.0169977 ]</t>
+          <t>[0.083857   0.77936427 0.3600911 ]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.39256328 1.12191986 0.69679744]</t>
+          <t>[0.01581282 0.03571399 0.0230897 ]</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
         <v>13.2804518023977</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0268342507040861</v>
+        <v>-0.6619204878807068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8375807578728385</v>
+        <v>0.05595988780260086</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.05222867 -0.01249592 -0.0300541 ]</t>
+          <t>[-1.06843071 -0.27368505 -0.67900742]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.49140384 1.39729279 0.89279408]</t>
+          <t>[0.04292697 0.07437942 0.06168238]</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1397,19 @@
         <v>14.8833988150265</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007278469561244341</v>
+        <v>-0.2308477461338043</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3544015026969021</v>
+        <v>0.01801634393632412</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.02166374  0.02901812  0.00638953]</t>
+          <t>[-0.9206161   0.34604677 -0.20497603]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.14055317 0.59641036 0.26075192]</t>
+          <t>[0.00386921 0.0468341  0.01812919]</t>
         </is>
       </c>
     </row>
@@ -1437,19 +1437,19 @@
         <v>5.65626339296861</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01886624468490083</v>
+        <v>-0.59425288438797</v>
       </c>
       <c r="H27" t="n">
-        <v>0.610139951138609</v>
+        <v>0.05632457137107849</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.04382451 -0.00236743 -0.02043107]</t>
+          <t>[-0.88767901 -0.28920538 -0.58498428]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.32028999 1.09186064 0.6258879 ]</t>
+          <t>[0.04880314 0.06668849 0.05771767]</t>
         </is>
       </c>
     </row>
@@ -1477,19 +1477,19 @@
         <v>4.06985188179461</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07312363521391191</v>
+        <v>1.507568955421448</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14780702765486</v>
+        <v>0.09011989086866379</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.05959975 0.10284961 0.08183214]</t>
+          <t>[1.06457653 1.84910754 1.40551569]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.92722661 2.5420156  2.31865687]</t>
+          <t>[0.06712834 0.11643505 0.0908085 ]</t>
         </is>
       </c>
     </row>
@@ -1517,19 +1517,19 @@
         <v>10.5427542371552</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01822128484210945</v>
+        <v>-0.4790423810482025</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6226335590832881</v>
+        <v>0.04100380837917328</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.04597393  0.01150489 -0.01921932]</t>
+          <t>[-0.95010784 -0.138949   -0.53032875]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.25836156 1.05993471 0.58675662]</t>
+          <t>[0.03056195 0.05913601 0.04403855]</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>15.7041429053511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03333111005884963</v>
+        <v>0.4807307124137878</v>
       </c>
       <c r="H30" t="n">
-        <v>1.054384871675127</v>
+        <v>0.04921259358525276</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.01633652 0.06826805 0.0362186 ]</t>
+          <t>[0.06756627 0.98428054 0.50324194]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.60973781 1.57225773 1.17129878]</t>
+          <t>[0.0362417  0.07212355 0.05690991]</t>
         </is>
       </c>
     </row>
@@ -1597,19 +1597,19 @@
         <v>17.2939233224719</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.005429259819176659</v>
+        <v>0.2017745673656464</v>
       </c>
       <c r="H31" t="n">
-        <v>0.342021404712</v>
+        <v>0.01101288292557001</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.02257641  0.02462437 -0.00516105]</t>
+          <t>[-0.2491191   0.67102246  0.20505315]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.18825575 0.4355179  0.23937991]</t>
+          <t>[0.00103482 0.0275835  0.00921444]</t>
         </is>
       </c>
     </row>
@@ -1637,19 +1637,19 @@
         <v>6.64822149110939</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.02125263273857022</v>
+        <v>0.4253669381141663</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6764407791677088</v>
+        <v>0.03815533220767975</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.04118647 -0.0030509  -0.02301213]</t>
+          <t>[0.05467799 0.78374347 0.38150154]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.35424143 1.23120212 0.68058383]</t>
+          <t>[0.02128394 0.05587255 0.03694646]</t>
         </is>
       </c>
     </row>
@@ -1677,19 +1677,19 @@
         <v>9.364352421008711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00939653908371476</v>
+        <v>-0.4122877717018127</v>
       </c>
       <c r="H33" t="n">
-        <v>0.528812666734769</v>
+        <v>0.03876814246177673</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.00726728  0.02500549  0.0101036 ]</t>
+          <t>[-0.77709766 -0.11134979 -0.42598045]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.29227227 0.98948124 0.54174234]</t>
+          <t>[0.02739423 0.05113831 0.03985925]</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
         <v>8.15506388476593</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01389320440184611</v>
+        <v>-0.3663673102855682</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4055984928947608</v>
+        <v>0.02880501374602318</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.04652803  0.01387657 -0.01939632]</t>
+          <t>[-0.93558849  0.02753863 -0.42239901]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.07723313 1.24429858 0.39483953]</t>
+          <t>[0.019116   0.04982719 0.02949623]</t>
         </is>
       </c>
     </row>
@@ -1757,19 +1757,19 @@
         <v>15.9320417767385</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01415834636501957</v>
+        <v>-0.2125588357448578</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5066907764678222</v>
+        <v>0.01716003939509392</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[-0.03020817  0.01786809 -0.01098895]</t>
+          <t>[-0.61707164  0.35213971 -0.18577013]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.1026823  0.8339186  0.43918603]</t>
+          <t>[0.01016467 0.03379768 0.01681744]</t>
         </is>
       </c>
     </row>
@@ -1797,19 +1797,19 @@
         <v>11.9378472875586</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.009166291113345016</v>
+        <v>-0.4306557774543762</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3639573014906008</v>
+        <v>0.02800565212965012</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[-0.03304843  0.01392962 -0.00877155]</t>
+          <t>[-0.76650363 -0.02349205 -0.4181058 ]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.13556054 0.73989674 0.31106479]</t>
+          <t>[0.00905867 0.04215394 0.02590709]</t>
         </is>
       </c>
     </row>
@@ -1837,19 +1837,19 @@
         <v>18.6256353495308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04514170177440986</v>
+        <v>0.6879175305366516</v>
       </c>
       <c r="H37" t="n">
-        <v>1.307614975678271</v>
+        <v>0.05184339731931686</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.01710541 0.08328042 0.04758108]</t>
+          <t>[0.01238734 1.25124897 0.66072966]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.54454653 2.36236255 1.43803432]</t>
+          <t>[0.03109671 0.07997615 0.05564333]</t>
         </is>
       </c>
     </row>
@@ -1877,19 +1877,19 @@
         <v>2.97573692676797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01373234257961751</v>
+        <v>-0.1076658144593239</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5395173240076795</v>
+        <v>0.004407796543091536</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.01405964  0.04009497  0.01771678]</t>
+          <t>[-0.53901417  0.27045632 -0.12454893]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.27927442 1.24614443 0.61292036]</t>
+          <t>[0.00051384 0.01607384 0.00262091]</t>
         </is>
       </c>
     </row>
@@ -1917,19 +1917,19 @@
         <v>13.0219623560134</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.008380850687161608</v>
+        <v>0.1703211218118668</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4160462127327316</v>
+        <v>0.02589091844856739</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.04585119  0.00790993 -0.01222151]</t>
+          <t>[-0.26515754  0.75318442  0.20176389]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.05816825 0.6293025  0.37278701]</t>
+          <t>[0.0101342  0.03837643 0.02293447]</t>
         </is>
       </c>
     </row>
@@ -1957,19 +1957,19 @@
         <v>12.5968651960161</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05425255046682349</v>
+        <v>0.7472057342529297</v>
       </c>
       <c r="H40" t="n">
-        <v>1.612567924025692</v>
+        <v>0.03965125232934952</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.03502828 0.0754962  0.0583496 ]</t>
+          <t>[0.42094727 1.30361353 0.8309307 ]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[1.10794313 2.18677248 1.73020053]</t>
+          <t>[0.02525349 0.0649159  0.04568879]</t>
         </is>
       </c>
     </row>
@@ -1997,19 +1997,19 @@
         <v>13.9818037974324</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002474536379052671</v>
+        <v>0.1610630452632904</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4104177240958793</v>
+        <v>0.01005457527935505</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.01686783  0.02627858  0.00427308]</t>
+          <t>[-0.21625282  0.56164395  0.15398705]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.15394247 0.60435896 0.35977621]</t>
+          <t>[0.00224885 0.02798346 0.00970494]</t>
         </is>
       </c>
     </row>
@@ -2037,19 +2037,19 @@
         <v>12.0011423977921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01750543986113235</v>
+        <v>-0.2888748049736023</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6259462858916696</v>
+        <v>0.05772725492715836</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-0.01487864  0.03952969  0.01457719]</t>
+          <t>[-0.93523573  0.45178397 -0.29310245]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.24268093 1.17831963 0.57781645]</t>
+          <t>[0.04291373 0.07459951 0.0593055 ]</t>
         </is>
       </c>
     </row>
@@ -2077,19 +2077,19 @@
         <v>19.1464856672245</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01196538887417966</v>
+        <v>-0.3661015033721924</v>
       </c>
       <c r="H43" t="n">
-        <v>0.474304128603389</v>
+        <v>0.03343169763684273</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.03699112  0.00948699 -0.01345624]</t>
+          <t>[-0.6205921   0.09451859 -0.17770407]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.18499118 0.70410784 0.39538313]</t>
+          <t>[0.02023286 0.0468902  0.03170792]</t>
         </is>
       </c>
     </row>
@@ -2117,19 +2117,19 @@
         <v>3.81350478775125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03081263608823134</v>
+        <v>1.022590756416321</v>
       </c>
       <c r="H44" t="n">
-        <v>0.956293870272391</v>
+        <v>0.07641839981079102</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.0023289  0.05502554 0.02821502]</t>
+          <t>[0.45423185 1.92982878 1.05928801]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.33208954 1.52504349 0.93483132]</t>
+          <t>[0.05716071 0.11653115 0.08097008]</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2157,19 @@
         <v>4.34862912988896</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.009454599320558246</v>
+        <v>0.4835733473300934</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4037354885350924</v>
+        <v>0.03347226232290268</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.02892558  0.02063239 -0.00970584]</t>
+          <t>[0.14820038 1.077438   0.50272161]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.19739828 0.62697489 0.35135861]</t>
+          <t>[0.0155781  0.05529759 0.03503505]</t>
         </is>
       </c>
     </row>
@@ -2197,19 +2197,19 @@
         <v>5.35937655592283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03896537514432588</v>
+        <v>0.6901566982269287</v>
       </c>
       <c r="H46" t="n">
-        <v>1.144527078821072</v>
+        <v>0.03398874029517174</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.00278278 0.05815619 0.03627423]</t>
+          <t>[0.26500951 1.23693864 0.64107782]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.3039207  1.80861567 1.12915618]</t>
+          <t>[0.02235416 0.05440676 0.03306415]</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2237,19 @@
         <v>15.5364012150061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07204388600478714</v>
+        <v>0.8665904998779297</v>
       </c>
       <c r="H47" t="n">
-        <v>2.08693930769535</v>
+        <v>0.03619049862027168</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[0.05055778 0.12820704 0.07787481]</t>
+          <t>[0.52255154 1.2817599  0.93785083]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[1.56476222 3.0298314  2.29311423]</t>
+          <t>[0.01814723 0.05586398 0.03268857]</t>
         </is>
       </c>
     </row>
@@ -2277,19 +2277,19 @@
         <v>5.00522096920462</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01476360743385351</v>
+        <v>-0.003864197991788387</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5169474254716266</v>
+        <v>0.002404906321316957</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.00852684  0.05038033  0.01848966]</t>
+          <t>[-0.41471172  0.69737152  0.12663816]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.23871177 1.42667161 0.58539969]</t>
+          <t>[0.00075166 0.00207856 0.00075329]</t>
         </is>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>4.73533373690427</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09782010415459376</v>
+        <v>1.718338012695312</v>
       </c>
       <c r="H49" t="n">
-        <v>2.810068452623526</v>
+        <v>0.07999325543642044</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[0.07790935 0.12907314 0.10375672]</t>
+          <t>[1.28609532 2.13787633 1.67225478]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[2.45588612 3.21606157 3.00682719]</t>
+          <t>[0.05801247 0.10383507 0.0804909 ]</t>
         </is>
       </c>
     </row>
@@ -2357,19 +2357,19 @@
         <v>7.15116605857213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05036115458097098</v>
+        <v>1.433470726013184</v>
       </c>
       <c r="H50" t="n">
-        <v>1.490470285897207</v>
+        <v>0.09132182598114014</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.02587872 0.07386502 0.05427113]</t>
+          <t>[0.84993215 2.16505778 1.47984967]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.8496721  2.09395442 1.64255319]</t>
+          <t>[0.0732359  0.12029041 0.09850022]</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>6.63548612638398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03158156077442099</v>
+        <v>0.5773287415504456</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9302013067449371</v>
+        <v>0.02467723190784454</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.00943703 0.07285397 0.03532334]</t>
+          <t>[0.23932944 1.08852791 0.66316083]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.33631862 2.10578606 1.08006656]</t>
+          <t>[0.0108461  0.04951098 0.02509399]</t>
         </is>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>16.5619208190305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02644306716671703</v>
+        <v>0.2001104652881622</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8686805635406238</v>
+        <v>0.02485915832221508</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.000355    0.04962699  0.02843685]</t>
+          <t>[-0.32951092  0.76454438  0.18980452]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.39690022 1.53401517 0.98959227]</t>
+          <t>[0.01543268 0.04442471 0.02273306]</t>
         </is>
       </c>
     </row>
@@ -2477,19 +2477,19 @@
         <v>8.351801436124299</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01109925601362424</v>
+        <v>-0.5462784767150879</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5158233351384673</v>
+        <v>0.03701169788837433</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.02982088  0.00418521 -0.01313681]</t>
+          <t>[-0.95565397 -0.10163793 -0.5461342 ]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.21172874 0.76133807 0.49574117]</t>
+          <t>[0.02688037 0.05533135 0.0378825 ]</t>
         </is>
       </c>
     </row>
